--- a/Arduino-Bluetooth/docs 2nd Approach/tukey_hsd.xlsx
+++ b/Arduino-Bluetooth/docs 2nd Approach/tukey_hsd.xlsx
@@ -487,23 +487,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.5547905909351704</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01869587563601365</v>
+        <v>0.5250135446218048</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01869587563601365</v>
+        <v>0.5845676372485359</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>81.74969316723494</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -519,19 +519,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.009290860826696815</v>
+        <v>0.01831129196337701</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.007361230043145707</v>
+        <v>-0.008445705850044921</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02594295169653934</v>
+        <v>0.04506828977679894</v>
       </c>
       <c r="F3" t="n">
-        <v>2.448121735546978</v>
+        <v>3.002757530800678</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7002131145378734</v>
+        <v>0.459844638217055</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.003472222222222154</v>
+        <v>0.01512096774193527</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.01312126161457879</v>
+        <v>-0.01159416253387981</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0200657060590231</v>
+        <v>0.04183609801775034</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9181544912648776</v>
+        <v>2.483481626266732</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9</v>
+        <v>0.6850479383718692</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -583,16 +583,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.001704545454545422</v>
+        <v>0.002340354396522791</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01494404106970402</v>
+        <v>-0.02435181491503168</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01835313197879487</v>
+        <v>0.02903252370807726</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4492385809603612</v>
+        <v>0.3847126055834243</v>
       </c>
       <c r="G5" t="n">
         <v>0.9</v>
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.009890302417195655</v>
+        <v>0.01204819277108412</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.006548100130818383</v>
+        <v>-0.01464855186585174</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02632870496520969</v>
+        <v>0.03874493740801997</v>
       </c>
       <c r="F6" t="n">
-        <v>2.639950521347523</v>
+        <v>1.980169017112511</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6179344980477408</v>
+        <v>0.9</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01754990930677841</v>
+        <v>0.09827777777778073</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001247209584349981</v>
+        <v>0.07159928421353862</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03385260902920684</v>
+        <v>0.1249562713420228</v>
       </c>
       <c r="F7" t="n">
-        <v>4.723470142111323</v>
+        <v>16.16339869457496</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02379130724204015</v>
+        <v>0.001</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -679,23 +679,23 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01212192346063929</v>
+        <v>0.1059523809523822</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.004183603568185101</v>
+        <v>0.0792738873881401</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02842745048946367</v>
+        <v>0.1326308745166243</v>
       </c>
       <c r="F8" t="n">
-        <v>3.261989240247975</v>
+        <v>17.42561354862084</v>
       </c>
       <c r="G8" t="n">
-        <v>0.338321188419284</v>
+        <v>0.001</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -711,23 +711,23 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.009417768955101579</v>
+        <v>0.07110204081632582</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.006868075979284254</v>
+        <v>0.04442354725208371</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02570361388948741</v>
+        <v>0.09778053438056793</v>
       </c>
       <c r="F9" t="n">
-        <v>2.537368615225947</v>
+        <v>11.69390130402446</v>
       </c>
       <c r="G9" t="n">
-        <v>0.661933964453232</v>
+        <v>0.001</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -743,23 +743,23 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.009290860826696815</v>
+        <v>0.5364792989717934</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.007371386918054805</v>
+        <v>0.5107061589429918</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02595310857144843</v>
+        <v>0.562252439000595</v>
       </c>
       <c r="F10" t="n">
-        <v>2.446629423908651</v>
+        <v>91.3322792732201</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7008542273835324</v>
+        <v>0.001</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -775,23 +775,23 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.003472222222222154</v>
+        <v>0.5396696231932351</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.01313145434088163</v>
+        <v>0.5139399515938827</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02007589878532594</v>
+        <v>0.5653992947925874</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9175908511941007</v>
+        <v>92.03062912083485</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -807,23 +807,23 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.001704545454545422</v>
+        <v>0.5524502365386476</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01495420008122071</v>
+        <v>0.5267444061199772</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01836329099031155</v>
+        <v>0.5781560669573179</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4489646215612026</v>
+        <v>94.29750161967509</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -839,23 +839,23 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.009890302417195655</v>
+        <v>0.5668387837062545</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.006558388956300966</v>
+        <v>0.5411282024377084</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02633899379069227</v>
+        <v>0.5925493649748006</v>
       </c>
       <c r="F13" t="n">
-        <v>2.638299205168014</v>
+        <v>96.73559847418635</v>
       </c>
       <c r="G13" t="n">
-        <v>0.618643284720372</v>
+        <v>0.001</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -871,19 +871,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01754990930677841</v>
+        <v>0.4565128131573896</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00123683516945973</v>
+        <v>0.4308211835124244</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03386298344409709</v>
+        <v>0.4822044428023548</v>
       </c>
       <c r="F14" t="n">
-        <v>4.720466217862374</v>
+        <v>77.9650531778245</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02395482209035593</v>
+        <v>0.001</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -903,23 +903,23 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01212192346063929</v>
+        <v>0.4488382099827881</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.004193976185341328</v>
+        <v>0.4231465803378229</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0284378231066199</v>
+        <v>0.4745298396277533</v>
       </c>
       <c r="F15" t="n">
-        <v>3.259915473781462</v>
+        <v>76.65435427216154</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3392430169527481</v>
+        <v>0.001</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -935,23 +935,23 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.009417768955101579</v>
+        <v>0.4836885501188445</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.006878461124178973</v>
+        <v>0.4579969204738794</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02571399903438213</v>
+        <v>0.5093801797638098</v>
       </c>
       <c r="F16" t="n">
-        <v>2.53575161911137</v>
+        <v>82.60623238743396</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6626293199918745</v>
+        <v>0.001</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -967,16 +967,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.005818638604474661</v>
+        <v>0.003190324221441741</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.008444546171456905</v>
+        <v>-0.01897452284434387</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02008182338040623</v>
+        <v>0.02535517128722736</v>
       </c>
       <c r="F17" t="n">
-        <v>1.7899904047627</v>
+        <v>0.631551458984317</v>
       </c>
       <c r="G17" t="n">
         <v>0.9</v>
@@ -999,19 +999,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.01099540628124224</v>
+        <v>0.01597093756685422</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.003331846329276356</v>
+        <v>-0.006166229423358961</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02532265889176083</v>
+        <v>0.0381081045570674</v>
       </c>
       <c r="F18" t="n">
-        <v>3.367395989828099</v>
+        <v>3.165534357324425</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2946156265739049</v>
+        <v>0.3826333963010845</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1031,23 +1031,23 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.00059944159049884</v>
+        <v>0.03035948473446113</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.01348302312420029</v>
+        <v>0.008216801202295086</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01468190630519797</v>
+        <v>0.05250216826662717</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1867729711575164</v>
+        <v>6.015930412417551</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1063,23 +1063,23 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.008259048480081596</v>
+        <v>0.07996648581440371</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.005664771123384245</v>
+        <v>0.05784581044828523</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02218286808354743</v>
+        <v>0.1020871611805222</v>
       </c>
       <c r="F20" t="n">
-        <v>2.602660103762904</v>
+        <v>15.86164733021868</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6339285663766585</v>
+        <v>0.001</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1095,23 +1095,23 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.002831062633942472</v>
+        <v>0.0876410889890052</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.01109606721387306</v>
+        <v>0.06552041362288671</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01675819248175801</v>
+        <v>0.1097617643551237</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8919359738561791</v>
+        <v>17.38393316928175</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1127,19 +1127,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.01870862978179839</v>
+        <v>0.05279074885294881</v>
       </c>
       <c r="D22" t="n">
-        <v>0.004804548390456775</v>
+        <v>0.03067007348683031</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03261271117314001</v>
+        <v>0.0749114242190673</v>
       </c>
       <c r="F22" t="n">
-        <v>5.903988555535277</v>
+        <v>10.47123969592766</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001005322592465663</v>
+        <v>0.001</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1159,19 +1159,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.005176767676767577</v>
+        <v>0.01278061334541248</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.009082325662933002</v>
+        <v>-0.009305930431713207</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01943586101646816</v>
+        <v>0.03486715712253817</v>
       </c>
       <c r="F23" t="n">
-        <v>1.59298831661316</v>
+        <v>2.53899939006594</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9</v>
+        <v>0.6612326889893446</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1191,23 +1191,23 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.006418080194973501</v>
+        <v>0.02716916051301939</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.007595034660240802</v>
+        <v>0.005077087552974133</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0204311950501878</v>
+        <v>0.04926123347306464</v>
       </c>
       <c r="F24" t="n">
-        <v>2.009630832061677</v>
+        <v>5.396080394390007</v>
       </c>
       <c r="G24" t="n">
-        <v>0.888296111275099</v>
+        <v>0.004336209593780893</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1223,19 +1223,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.01407768708455626</v>
+        <v>0.08315681003584546</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0002240114764534996</v>
+        <v>0.06108679571053278</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02793136269265901</v>
+        <v>0.1052268243611581</v>
       </c>
       <c r="F25" t="n">
-        <v>4.458739717283347</v>
+        <v>16.5323224302447</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04305586947443718</v>
+        <v>0.001</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1255,23 +1255,23 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.008649701238417132</v>
+        <v>0.09083141321044694</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.00520730137046607</v>
+        <v>0.06876139888513426</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02250670384730034</v>
+        <v>0.1129014275357596</v>
       </c>
       <c r="F26" t="n">
-        <v>2.738909206077326</v>
+        <v>18.05810262974969</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5754869165836211</v>
+        <v>0.001</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1287,23 +1287,23 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.01288999117732373</v>
+        <v>0.05598107307439055</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0009438461370924623</v>
+        <v>0.03391105874907788</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02672382849173993</v>
+        <v>0.07805108739970322</v>
       </c>
       <c r="F27" t="n">
-        <v>4.088422628802894</v>
+        <v>11.12954128059952</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09069799969635417</v>
+        <v>0.001</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1319,19 +1319,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.01159484787174108</v>
+        <v>0.01438854716760691</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.002483472886029488</v>
+        <v>-0.007675754420589386</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02567316862951164</v>
+        <v>0.03645284875580319</v>
       </c>
       <c r="F28" t="n">
-        <v>3.613765990792525</v>
+        <v>2.861313345450331</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2059550231525505</v>
+        <v>0.522980241264126</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1351,16 +1351,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.01925445476132383</v>
+        <v>0.09593742338125794</v>
       </c>
       <c r="D29" t="n">
-        <v>0.005334826344308272</v>
+        <v>0.07389520821983586</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0331740831783394</v>
+        <v>0.11797963854268</v>
       </c>
       <c r="F29" t="n">
-        <v>6.069451010385574</v>
+        <v>19.09727815295572</v>
       </c>
       <c r="G29" t="n">
         <v>0.001</v>
@@ -1383,23 +1383,23 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.01382646891518471</v>
+        <v>0.1036120265558594</v>
       </c>
       <c r="D30" t="n">
-        <v>-9.647074265485903e-05</v>
+        <v>0.08156981139443734</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02774940857302428</v>
+        <v>0.1256542417172815</v>
       </c>
       <c r="F30" t="n">
-        <v>4.357387347835502</v>
+        <v>20.62498263336971</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05332775043915028</v>
+        <v>0.001</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1415,23 +1415,23 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.007713223500556157</v>
+        <v>0.06876168641980303</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.006186660752738177</v>
+        <v>0.04671947125838095</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02161310775385049</v>
+        <v>0.09080390158122512</v>
       </c>
       <c r="F31" t="n">
-        <v>2.434840737308751</v>
+        <v>13.68768313285587</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7059109985422802</v>
+        <v>0.001</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1447,23 +1447,23 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.007659606889582756</v>
+        <v>0.1103259705488648</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.006007934964859154</v>
+        <v>0.08827821508769604</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02132714874402467</v>
+        <v>0.1323737260100336</v>
       </c>
       <c r="F32" t="n">
-        <v>2.459019065452825</v>
+        <v>21.95593993637574</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6955414501140353</v>
+        <v>0.001</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1479,23 +1479,23 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.002231621043443632</v>
+        <v>0.1180005737234663</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01143929311000551</v>
+        <v>0.09595281826229753</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01590253519689277</v>
+        <v>0.1400483291846351</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7162567358655449</v>
+        <v>23.48326052552421</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1511,16 +1511,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.01930807137229723</v>
+        <v>0.08315023358740993</v>
       </c>
       <c r="D34" t="n">
-        <v>0.005660638378136242</v>
+        <v>0.06110247812624113</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03295550436645823</v>
+        <v>0.1051979890485787</v>
       </c>
       <c r="F34" t="n">
-        <v>6.207743333265988</v>
+        <v>16.54770427360241</v>
       </c>
       <c r="G34" t="n">
         <v>0.001</v>
@@ -1543,16 +1543,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.005427985846139124</v>
+        <v>0.007674603174601488</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.008079450390989283</v>
+        <v>-0.01435104926801739</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01893542208326753</v>
+        <v>0.02970025561722036</v>
       </c>
       <c r="F35" t="n">
-        <v>1.763240723997145</v>
+        <v>1.528853274520744</v>
       </c>
       <c r="G35" t="n">
         <v>0.9</v>
@@ -1575,19 +1575,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.02696767826187999</v>
+        <v>0.02717573696145491</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01348400786991225</v>
+        <v>0.005150084518836032</v>
       </c>
       <c r="E36" t="n">
-        <v>0.04045134865384774</v>
+        <v>0.04920138940407379</v>
       </c>
       <c r="F36" t="n">
-        <v>8.775689685661026</v>
+        <v>5.413662895110165</v>
       </c>
       <c r="G36" t="n">
-        <v>0.001</v>
+        <v>0.004131024771766301</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.02153969241574086</v>
+        <v>0.0348503401360564</v>
       </c>
       <c r="D37" t="n">
-        <v>0.008052603749639412</v>
+        <v>0.01282468769343752</v>
       </c>
       <c r="E37" t="n">
-        <v>0.03502678108184232</v>
+        <v>0.05687599257867527</v>
       </c>
       <c r="F37" t="n">
-        <v>7.007564632617195</v>
+        <v>6.94251616963091</v>
       </c>
       <c r="G37" t="n">
         <v>0.001</v>

--- a/Arduino-Bluetooth/docs 2nd Approach/tukey_hsd.xlsx
+++ b/Arduino-Bluetooth/docs 2nd Approach/tukey_hsd.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Accepted</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Accepted</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Accepted</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Accepted</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Accepted</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Accepted</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Accepted</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Accepted</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>Accepted</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Rejected</t>
         </is>
       </c>
     </row>
